--- a/40 Day Java.xlsx
+++ b/40 Day Java.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Problem Name</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6(w3res)</t>
   </si>
 </sst>
 </file>
@@ -78,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,9 +365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -379,6 +385,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/40 Day Java.xlsx
+++ b/40 Day Java.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\40 Days Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D5890D8C-556B-43C2-81F7-73FE6D2DE6D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -34,11 +35,14 @@
   <si>
     <t>1,2,3,4,5,6(w3res)</t>
   </si>
+  <si>
+    <t>7,8,9,10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,11 +368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +397,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
